--- a/biology/Zoologie/Agility/Agility.xlsx
+++ b/biology/Zoologie/Agility/Agility.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'agility (signifiant tout simplement « agilité » en anglais), ou agilité, est un sport canin, dans lequel le chien évolue sur un parcours d'obstacles sous la conduite de son maître.on peut en faire en club comme chez soit.  
 </t>
@@ -511,21 +523,61 @@
           <t>Catégories de chiens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dans les compétitions internationales de la FCI, il existe quatre catégories. Chaque chien en fonction de sa taille devra concourir dans les catégories suivantes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les compétitions internationales de la FCI, il existe quatre catégories. Chaque chien en fonction de sa taille devra concourir dans les catégories suivantes :
 S = chien de moins de 35 cm au garrot ;
 M = chien de 35 cm et moins de 43 cm ;
 I = chien de 43 cm et moins de 48 cm ;
 L = chien de 48 cm et plus.
-Jusqu'en 2022, la France avait ajouté au règlement de la Fédération cynologique internationale (FCI) une quatrième catégorie (D), selon une liste évolutive, pour permettre à tous les chiens de pratiquer l'agility en compétition[1]. Quelques cas particuliers sont pris en compte pour le classement de certaines races dans les catégories A, B et C[2].
+Jusqu'en 2022, la France avait ajouté au règlement de la Fédération cynologique internationale (FCI) une quatrième catégorie (D), selon une liste évolutive, pour permettre à tous les chiens de pratiquer l'agility en compétition. Quelques cas particuliers sont pris en compte pour le classement de certaines races dans les catégories A, B et C.
 			Montée du chien en respectant la zone
 			Passage de l'axe de la balançoire
 			Attente du basculement
 			Descente du chien en respectant la zone
-Sauts
-Haie simple
-Barres : largeur 120 à 150 cm
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agility</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agility</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Catégories de chiens</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sauts</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Haie simple</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barres : largeur 120 à 150 cm
 Diamètre des barres 3 à 5 cm.
 Hauteur : suivant les catégories :
 S : 25 à 30 cm
@@ -536,8 +588,47 @@
 Les haies peuvent être construites de façons différentes entre les montants :
 Panneaux à claire-voie - Panneaux avec balais, qui comporteront toujours une barre de chute en partie supérieure.
 Les ailes des haies doivent être construites de manière à interdire le passage du chien. Les ailes d’une haie doivent être indépendantes l’une de l’autre et avoir une hauteur minimum de 1 mètre côté support de barres.
-Oxer
-L'Oxer (ou haie double) est réalisé par assemblage de deux haies simples à barres uniquement. La mise en place doit se faire en ligne droite par rapport à l’obstacle précédent. Un différentiel de 10 cm de hauteur sur la barre de la haie arrière par rapport à la première haie de l’oxer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agility</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agility</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Catégories de chiens</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sauts</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Oxer</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'Oxer (ou haie double) est réalisé par assemblage de deux haies simples à barres uniquement. La mise en place doit se faire en ligne droite par rapport à l’obstacle précédent. Un différentiel de 10 cm de hauteur sur la barre de la haie arrière par rapport à la première haie de l’oxer.
 Hauteur et largeur : suivant les catégories :
 S : 30 cm en hauteur et 30 cm maxi en profondeur.
 M : 40 cm en hauteur et 40 cm maxi en profondeur.
@@ -546,31 +637,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Agility</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agility</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Préparation du parcours</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour un concours officiel, il doit être mis à disposition du juge :
 sauts : minimum 13 haies, 1 pneu ouvrable ou fermé, 1 mur ou viaduc, 1 saut en
@@ -582,7 +675,7 @@
 Les obstacles obligatoires sur une épreuve « jumping » :
 Le slalom ; les haies ; tunnels rigides.
 Les obstacles ne doivent présenter aucun danger pour le chien et leurs dimensions doivent être conformes aux prescriptions.
-La disposition, la qualité et le nombre des obstacles déterminent la complexité et la rapidité du parcours qui doivent permettre une évolution aisée et sans heurts du chien. L'imagination du juge est cependant bridée par les aspects réglementaires. Ils fixent des limites d'une part à la longueur du parcours et d'autre part au nombre, qualité et disposition des obstacles selon la catégorie des chiens[3].
+La disposition, la qualité et le nombre des obstacles déterminent la complexité et la rapidité du parcours qui doivent permettre une évolution aisée et sans heurts du chien. L'imagination du juge est cependant bridée par les aspects réglementaires. Ils fixent des limites d'une part à la longueur du parcours et d'autre part au nombre, qualité et disposition des obstacles selon la catégorie des chiens.
 Le juge mesure avec précision la longueur L(m) et choisit la vitesse d'évolution V(m/s) en fonction du niveau de l'épreuve et de la complexité du parcours. Le temps de parcours standard TPS(s) est calculé selon la formule : 
         T
         P
@@ -604,41 +697,78 @@
         )
     {\displaystyle TPS(s)=L(m)/V(m/s)}
 .
-Il reste alors à déterminer le temps maximum de parcours TMP(s) qui sert de référence pour l'octroi des pénalités. Il sera, sans être inférieur à 1,5 fois le temps de parcours standard, généralement le double de ce dernier[4].
+Il reste alors à déterminer le temps maximum de parcours TMP(s) qui sert de référence pour l'octroi des pénalités. Il sera, sans être inférieur à 1,5 fois le temps de parcours standard, généralement le double de ce dernier.
 Chaque seconde qui dépasse le TPS donne un point de pénalité. Au-delà du TMP, l'équipe ne sera pas classée.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Agility</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agility</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Jugements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tous les jugements sont sans appel.
-Les fautes d'ordre général
-Le départ
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les jugements sont sans appel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agility</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agility</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Jugements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les fautes d'ordre général</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le départ
 Le chien, dès la sortie du sas, doit marcher sous le contrôle du maître, mais peut-être amené en laisse. 
 Une seule mise en place est accordée au conducteur (sauf pour l'équipe qui débute). 
 Une seconde mise en place par manipulation du chien entraîne l'élimination. 
